--- a/biology/Botanique/Jus_de_compost/Jus_de_compost.xlsx
+++ b/biology/Botanique/Jus_de_compost/Jus_de_compost.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jus de compost est le résultat de la percolation des matières liquides en formation dans un processus de compostage naturel ou accéléré par l'être humain en tas ou dans un composteur.Ce jus ou lixiviat ou percolat est un fertilisant naturel.
 </t>
@@ -511,7 +523,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il contient des éléments organiques, minéraux et micro-organismes acteurs du processus de décomposition : les détritivores. Essentiellement cryptogames et bactéries.
 </t>
@@ -542,7 +556,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce jus peut être récupéré pour utilisation comme fertilisant en épandage ou, filtré, comme pulvérisat sur les parties foliaires des plantes; il sert alors de stimulant des défenses immunitaires par apport de micro-organismes entrant en concurrence avec des germes pathogènes.
 Il est possible de développer un jus de compost filtré, et par la même aux propriétés physico-chimiques soutenues, par des techniques mécaniques agricoles: l'extraction de compost.
@@ -574,7 +590,9 @@
           <t>Extraction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'extraction de compost est une technique qui utilise du compost, de l'eau et de l'oxygène afin de décupler ses propriétés.
 On introduit du compost dans un filet, que l'on fait tremper dans de l'eau. On y apporte de l'air pendant plusieurs heures. Deux variantes principales existent:
@@ -583,9 +601,9 @@
 La première technique favorise la multiplication très rapide, et dure en général environ 24h. Dans ce procédé, certaines fonctions plus dominantes prennent le dessus sur d'autres pourtant utiles et complémentaires dans l'action recherchée.
 La deuxième technique s'appuie plutôt sur un développement de la biodiversité des populations présentes dans le milieu afin de créer une chaîne de fonctions enzymatiques plus étendue.
 Voir:
-jusdecompost.fr[1]
-ladynamo.fr[2]
-dyn-agri.fr[3]
+jusdecompost.fr
+ladynamo.fr
+dyn-agri.fr
 </t>
         </is>
       </c>
